--- a/GF2mZ Arithmetic/GF2mZ_multiplier_statistics.xlsx
+++ b/GF2mZ Arithmetic/GF2mZ_multiplier_statistics.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Trinomial/Pentanomial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +191,70 @@
   </si>
   <si>
     <t>energy（uJ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z^83+z^7+z^4+z^2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z^97+z^6+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z^189+z^6+z^5+z^2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z^193+z^15+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z^211+z^11+z^10+z^8+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z^113+z^9+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gf2m_mul_Delay=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gf2m_mul_Delay=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gf2m_mul_Delay=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gf2m_mul_Delay =8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +337,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -303,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -313,6 +390,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -620,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -742,7 +821,7 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L6" si="1">K3*E3/D3</f>
+        <f t="shared" ref="L3:L5" si="1">K3*E3/D3</f>
         <v>2.4053333333333335</v>
       </c>
     </row>
@@ -899,7 +978,7 @@
         <v>0.46</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L7:L62" si="3">K9*E9/D9</f>
+        <f t="shared" ref="L9:L62" si="3">K9*E9/D9</f>
         <v>7.0472000000000001</v>
       </c>
     </row>
@@ -2393,6 +2472,1028 @@
       <c r="L62">
         <f t="shared" si="3"/>
         <v>8.6627142857142854</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>210</v>
+      </c>
+      <c r="E2">
+        <f>4+_xlfn.CEILING.MATH(83/C2)*((6+1)*_xlfn.CEILING.MATH(83/C2)+6+19)</f>
+        <v>6192</v>
+      </c>
+      <c r="F2">
+        <v>2154</v>
+      </c>
+      <c r="G2">
+        <v>6892</v>
+      </c>
+      <c r="H2">
+        <v>2594</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f>F2*E2/D2</f>
+        <v>63512.228571428568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">4+_xlfn.CEILING.MATH(83/C3)*((6+1)*_xlfn.CEILING.MATH(83/C3)+6+19)</f>
+        <v>3616</v>
+      </c>
+      <c r="F3">
+        <v>3757</v>
+      </c>
+      <c r="G3">
+        <v>12520</v>
+      </c>
+      <c r="H3">
+        <v>4010</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <f>F3*E3/D3</f>
+        <v>67926.559999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>190</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2452</v>
+      </c>
+      <c r="F4">
+        <v>4285</v>
+      </c>
+      <c r="G4">
+        <v>14046</v>
+      </c>
+      <c r="H4">
+        <v>4910</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J41" si="1">F4*E4/D4</f>
+        <v>55299.052631578947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="9"/>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>180</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1726</v>
+      </c>
+      <c r="F5">
+        <v>5454</v>
+      </c>
+      <c r="G5">
+        <v>17673</v>
+      </c>
+      <c r="H5">
+        <v>5635</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>52297.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1312</v>
+      </c>
+      <c r="F6">
+        <v>6425</v>
+      </c>
+      <c r="G6">
+        <v>21330</v>
+      </c>
+      <c r="H6">
+        <v>6786</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>46831.111111111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>210</v>
+      </c>
+      <c r="E9">
+        <f>4+_xlfn.CEILING.MATH(97/C9)*((6+1)*_xlfn.CEILING.MATH(97/C9)+6+3)</f>
+        <v>7924</v>
+      </c>
+      <c r="F9">
+        <v>2931</v>
+      </c>
+      <c r="G9">
+        <v>7313</v>
+      </c>
+      <c r="H9">
+        <v>2931</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>110596.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E13" si="2">4+_xlfn.CEILING.MATH(97/C10)*((6+1)*_xlfn.CEILING.MATH(97/C10)+6+3)</f>
+        <v>4604</v>
+      </c>
+      <c r="F10">
+        <v>3587</v>
+      </c>
+      <c r="G10">
+        <v>12047</v>
+      </c>
+      <c r="H10">
+        <v>4453</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>82572.740000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>190</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2984</v>
+      </c>
+      <c r="F11">
+        <v>4584</v>
+      </c>
+      <c r="G11">
+        <v>15043</v>
+      </c>
+      <c r="H11">
+        <v>5488</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>71992.926315789475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>180</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2180</v>
+      </c>
+      <c r="F12">
+        <v>5201</v>
+      </c>
+      <c r="G12">
+        <v>17477</v>
+      </c>
+      <c r="H12">
+        <v>6555</v>
+      </c>
+      <c r="I12">
+        <v>24.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>62989.888888888891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>170</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>1502</v>
+      </c>
+      <c r="F13">
+        <v>6312</v>
+      </c>
+      <c r="G13">
+        <v>21232</v>
+      </c>
+      <c r="H13">
+        <v>7408</v>
+      </c>
+      <c r="I13">
+        <v>27.5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>55768.376470588235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <f>4+_xlfn.CEILING.MATH(113/C16)*((8+1)*_xlfn.CEILING.MATH(113/C16)+8+3)</f>
+        <v>13418</v>
+      </c>
+      <c r="F16">
+        <v>2737</v>
+      </c>
+      <c r="G16">
+        <v>9114</v>
+      </c>
+      <c r="H16">
+        <v>3715</v>
+      </c>
+      <c r="I16">
+        <v>17.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>183625.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>190</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E20" si="3">4+_xlfn.CEILING.MATH(113/C17)*((8+1)*_xlfn.CEILING.MATH(113/C17)+8+3)</f>
+        <v>7892</v>
+      </c>
+      <c r="F17">
+        <v>4586</v>
+      </c>
+      <c r="G17">
+        <v>15226</v>
+      </c>
+      <c r="H17">
+        <v>5730</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>190487.95789473684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>5018</v>
+      </c>
+      <c r="F18">
+        <v>5350</v>
+      </c>
+      <c r="G18">
+        <v>17944</v>
+      </c>
+      <c r="H18">
+        <v>7050</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>149146.11111111112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>3462</v>
+      </c>
+      <c r="F19">
+        <v>6670</v>
+      </c>
+      <c r="G19">
+        <v>21884</v>
+      </c>
+      <c r="H19">
+        <v>8070</v>
+      </c>
+      <c r="I19">
+        <v>29.5</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>153943.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>2792</v>
+      </c>
+      <c r="F20">
+        <v>7488</v>
+      </c>
+      <c r="G20">
+        <v>25863</v>
+      </c>
+      <c r="H20">
+        <v>9921</v>
+      </c>
+      <c r="I20">
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>139376.64000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <f>4+_xlfn.CEILING.MATH(189/C23)*((7+1)*_xlfn.CEILING.MATH(189/C23)+7+19)</f>
+        <v>33394</v>
+      </c>
+      <c r="F23">
+        <v>2383</v>
+      </c>
+      <c r="G23">
+        <v>7544</v>
+      </c>
+      <c r="H23">
+        <v>3014</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>397889.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>190</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E27" si="4">4+_xlfn.CEILING.MATH(189/C24)*((7+1)*_xlfn.CEILING.MATH(189/C24)+7+19)</f>
+        <v>19684</v>
+      </c>
+      <c r="F24">
+        <v>4149</v>
+      </c>
+      <c r="G24">
+        <v>14143</v>
+      </c>
+      <c r="H24">
+        <v>4889</v>
+      </c>
+      <c r="I24">
+        <v>18.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>429836.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>180</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>12544</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4933</v>
+      </c>
+      <c r="G25" s="7">
+        <v>16700</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5691</v>
+      </c>
+      <c r="I25" s="7">
+        <v>22</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="1"/>
+        <v>343775.2888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="10"/>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>170</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>9028</v>
+      </c>
+      <c r="F26">
+        <v>6416</v>
+      </c>
+      <c r="G26">
+        <v>21839</v>
+      </c>
+      <c r="H26">
+        <v>7356</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>340727.34117647057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="10"/>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>6538</v>
+      </c>
+      <c r="F27">
+        <v>7918</v>
+      </c>
+      <c r="G27">
+        <v>24918</v>
+      </c>
+      <c r="H27">
+        <v>8308</v>
+      </c>
+      <c r="I27">
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>323549.27500000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3"/>
+      <c r="B30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <f>4+_xlfn.CEILING.MATH(193/C30)*((8+1)*_xlfn.CEILING.MATH(193/C30)+8+3)</f>
+        <v>38744</v>
+      </c>
+      <c r="F30">
+        <v>2664</v>
+      </c>
+      <c r="G30">
+        <v>9113</v>
+      </c>
+      <c r="H30">
+        <v>3727</v>
+      </c>
+      <c r="I30">
+        <v>17.5</v>
+      </c>
+      <c r="J30">
+        <f>F30*E30/D30</f>
+        <v>516070.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>190</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E34" si="5">4+_xlfn.CEILING.MATH(193/C31)*((8+1)*_xlfn.CEILING.MATH(193/C31)+8+3)</f>
+        <v>22152</v>
+      </c>
+      <c r="F31">
+        <v>4561</v>
+      </c>
+      <c r="G31">
+        <v>15159</v>
+      </c>
+      <c r="H31">
+        <v>5734</v>
+      </c>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <f>F31*E31/D31</f>
+        <v>531764.5894736842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>180</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>14122</v>
+      </c>
+      <c r="F32">
+        <v>5457</v>
+      </c>
+      <c r="G32">
+        <v>17906</v>
+      </c>
+      <c r="H32">
+        <v>7054</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>428131.96666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>170</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>10168</v>
+      </c>
+      <c r="F33">
+        <v>6900</v>
+      </c>
+      <c r="G33">
+        <v>22311</v>
+      </c>
+      <c r="H33">
+        <v>8559</v>
+      </c>
+      <c r="I33">
+        <v>29.5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>412701.17647058825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3"/>
+      <c r="B34" s="10"/>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>160</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>7368</v>
+      </c>
+      <c r="F34">
+        <v>7825</v>
+      </c>
+      <c r="G34">
+        <v>24778</v>
+      </c>
+      <c r="H34">
+        <v>9145</v>
+      </c>
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>360341.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3"/>
+      <c r="B37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>190</v>
+      </c>
+      <c r="E37">
+        <f>4+_xlfn.CEILING.MATH(211/C37)*((8+1)*_xlfn.CEILING.MATH(211/C37)+8+19)</f>
+        <v>47290</v>
+      </c>
+      <c r="F37">
+        <v>2789</v>
+      </c>
+      <c r="G37">
+        <v>9275</v>
+      </c>
+      <c r="H37">
+        <v>3722</v>
+      </c>
+      <c r="I37">
+        <v>17.5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>694167.42105263157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>170</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E41" si="6">4+_xlfn.CEILING.MATH(211/C38)*((8+1)*_xlfn.CEILING.MATH(211/C38)+8+19)</f>
+        <v>26716</v>
+      </c>
+      <c r="F38">
+        <v>4655</v>
+      </c>
+      <c r="G38">
+        <v>15705</v>
+      </c>
+      <c r="H38">
+        <v>5732</v>
+      </c>
+      <c r="I38">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>731546.9411764706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>160</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>17806</v>
+      </c>
+      <c r="F39">
+        <v>5773</v>
+      </c>
+      <c r="G39">
+        <v>19095</v>
+      </c>
+      <c r="H39">
+        <v>7044</v>
+      </c>
+      <c r="I39">
+        <v>25</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>642462.73750000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7">
+        <v>150</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>12640</v>
+      </c>
+      <c r="F40" s="7">
+        <v>7785</v>
+      </c>
+      <c r="G40" s="7">
+        <v>25518</v>
+      </c>
+      <c r="H40" s="7">
+        <v>8577</v>
+      </c>
+      <c r="I40" s="7">
+        <v>29.5</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="1"/>
+        <v>656016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3"/>
+      <c r="B41" s="10"/>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>9490</v>
+      </c>
+      <c r="F41">
+        <v>8740</v>
+      </c>
+      <c r="G41">
+        <v>29197</v>
+      </c>
+      <c r="H41">
+        <v>10323</v>
+      </c>
+      <c r="I41">
+        <v>33</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>552950.66666666663</v>
       </c>
     </row>
   </sheetData>
